--- a/Книга учёта КД.xlsx
+++ b/Книга учёта КД.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Altium\SM_Project\QUANTUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Altium\SM_Project\QUANTUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043A1B34-BB64-4C60-8C8B-0EA045CE5EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA26E7FE-C51C-41A1-A9F6-966AD0E272F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
   <si>
     <r>
       <t>Qantum-2U Grandmaster</t>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>Подсборка 2-го уровня</t>
+  </si>
+  <si>
+    <t>B2C CAM модуль</t>
   </si>
 </sst>
 </file>
@@ -840,45 +843,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -907,6 +871,45 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1207,20 +1210,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="38" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1231,10 +1234,10 @@
       <c r="B2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="22"/>
@@ -2896,7 +2899,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.55000000000000004"/>
@@ -2908,44 +2911,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="32" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2959,7 +2962,7 @@
       <c r="C4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="24" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2973,7 +2976,7 @@
       <c r="C5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="24" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2987,35 +2990,35 @@
       <c r="C6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>70</v>
+      <c r="D7" s="29" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="32" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3029,7 +3032,7 @@
       <c r="C9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="24" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3043,7 +3046,7 @@
       <c r="C10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="24" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3057,49 +3060,49 @@
       <c r="C11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="24" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="29" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="32" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="35" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3113,7 +3116,7 @@
       <c r="C27" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="24" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3127,21 +3130,21 @@
       <c r="C28" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="35" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3155,7 +3158,7 @@
       <c r="C30" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="24" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3169,7 +3172,7 @@
       <c r="C31" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="24" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3183,7 +3186,7 @@
       <c r="C32" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="24" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3197,21 +3200,21 @@
       <c r="C33" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="32" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3225,7 +3228,7 @@
       <c r="C35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="24" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3239,7 +3242,7 @@
       <c r="C36" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="24" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3253,7 +3256,7 @@
       <c r="C37" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="24" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3267,7 +3270,7 @@
       <c r="C38" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="24" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3303,12 +3306,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="19.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="7"/>
@@ -3322,23 +3325,23 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11"/>
@@ -3346,11 +3349,11 @@
       <c r="C5" s="12"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3370,39 +3373,39 @@
       <c r="C7" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="202.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" s="33"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" s="33"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" s="33"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="26" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="19"/>
@@ -3411,12 +3414,12 @@
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3455,12 +3458,12 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
@@ -3469,12 +3472,12 @@
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
@@ -3483,12 +3486,12 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
@@ -3497,12 +3500,12 @@
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
@@ -3511,12 +3514,12 @@
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
@@ -3525,12 +3528,12 @@
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
@@ -3539,12 +3542,12 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">

--- a/Книга учёта КД.xlsx
+++ b/Книга учёта КД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Altium\SM_Project\QUANTUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA26E7FE-C51C-41A1-A9F6-966AD0E272F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267ACC9B-DE11-4D23-A397-026D55FFF8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="128">
   <si>
     <r>
       <t>Qantum-2U Grandmaster</t>
@@ -464,6 +464,81 @@
   </si>
   <si>
     <t>B2C CAM модуль</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.00.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.00.001</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.00.002</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.00.003</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.00.004</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.00.005</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.00.006</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.10.000</t>
+  </si>
+  <si>
+    <t>Quantum-Grand Mini</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.11.000</t>
+  </si>
+  <si>
+    <t>Уголок</t>
+  </si>
+  <si>
+    <t>Планка передняя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Планка соединительная задняя </t>
+  </si>
+  <si>
+    <t>Планка соединительная передняя</t>
+  </si>
+  <si>
+    <t>С разъемами</t>
+  </si>
+  <si>
+    <t>Планка передняя глухая</t>
+  </si>
+  <si>
+    <t>Модуль процессорный</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.12.000</t>
+  </si>
+  <si>
+    <t>Основание в сборе</t>
+  </si>
+  <si>
+    <t>Основание</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.11.001</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.13.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.002.13.001</t>
+  </si>
+  <si>
+    <t>Сервер времени специализированный</t>
+  </si>
+  <si>
+    <t>Без разъемов</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1270,8 @@
   </sheetPr>
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView topLeftCell="A4" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="C15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2896,21 +2971,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35.578125" customWidth="1"/>
-    <col min="2" max="2" width="47.26171875" customWidth="1"/>
+    <col min="2" max="2" width="55.05078125" customWidth="1"/>
     <col min="3" max="3" width="11.05078125" customWidth="1"/>
     <col min="4" max="4" width="36.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="25" t="s">
         <v>71</v>
       </c>
@@ -2924,7 +2999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>68</v>
       </c>
@@ -2938,7 +3013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="30" t="s">
         <v>83</v>
       </c>
@@ -2952,7 +3027,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="22" t="s">
         <v>84</v>
       </c>
@@ -2966,7 +3041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="22" t="s">
         <v>62</v>
       </c>
@@ -2980,7 +3055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="22" t="s">
         <v>63</v>
       </c>
@@ -2994,7 +3069,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>69</v>
       </c>
@@ -3008,7 +3083,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30" t="s">
         <v>85</v>
       </c>
@@ -3022,7 +3097,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="22" t="s">
         <v>86</v>
       </c>
@@ -3036,7 +3111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="22" t="s">
         <v>62</v>
       </c>
@@ -3049,8 +3124,17 @@
       <c r="D10" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="22">
+        <v>467883</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="22" t="s">
         <v>63</v>
       </c>
@@ -3064,93 +3148,247 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="27" t="s">
+    <row r="12" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B26" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C26" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D26" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="30" t="s">
+    <row r="27" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B27" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C27" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D27" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33" t="s">
+    <row r="28" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B28" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C28" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D28" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="22" t="s">
+    <row r="29" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D29" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="22" t="s">
+    <row r="30" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="22" t="s">
-        <v>97</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>65</v>
@@ -3162,23 +3400,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>65</v>
@@ -3190,9 +3428,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="22" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>65</v>
@@ -3204,23 +3442,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>65</v>
@@ -3232,45 +3470,73 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="15" t="s">
+    <row r="36" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="22" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D38" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="24" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Книга учёта КД.xlsx
+++ b/Книга учёта КД.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Altium\SM_Project\QUANTUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267ACC9B-DE11-4D23-A397-026D55FFF8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069671F0-4766-459F-B4FF-59CFF68BFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инв. книга" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="133">
   <si>
     <r>
       <t>Qantum-2U Grandmaster</t>
@@ -539,6 +539,21 @@
   </si>
   <si>
     <t>Без разъемов</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.001.00.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.001.10.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.001.11.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сборка платы </t>
+  </si>
+  <si>
+    <t>Головная сборка с брекетом и жгутами GPS</t>
   </si>
 </sst>
 </file>
@@ -2971,10 +2986,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.55000000000000004"/>
@@ -2985,7 +3000,7 @@
     <col min="4" max="4" width="36.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="25" t="s">
         <v>71</v>
       </c>
@@ -2999,7 +3014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>68</v>
       </c>
@@ -3013,7 +3028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="30" t="s">
         <v>83</v>
       </c>
@@ -3027,7 +3042,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="22" t="s">
         <v>84</v>
       </c>
@@ -3041,7 +3056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="22" t="s">
         <v>62</v>
       </c>
@@ -3055,7 +3070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="22" t="s">
         <v>63</v>
       </c>
@@ -3069,7 +3084,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>69</v>
       </c>
@@ -3083,7 +3098,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30" t="s">
         <v>85</v>
       </c>
@@ -3097,7 +3112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="22" t="s">
         <v>86</v>
       </c>
@@ -3111,7 +3126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="22" t="s">
         <v>62</v>
       </c>
@@ -3124,17 +3139,8 @@
       <c r="D10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="22">
-        <v>467883</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="22" t="s">
         <v>63</v>
       </c>
@@ -3148,23 +3154,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="30" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>126</v>
@@ -3173,113 +3179,113 @@
         <v>74</v>
       </c>
       <c r="D13" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33" t="s">
+    <row r="17" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B17" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C17" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D17" s="35" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="22" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>75</v>
@@ -3290,10 +3296,10 @@
     </row>
     <row r="22" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>75</v>
@@ -3304,105 +3310,105 @@
     </row>
     <row r="23" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D24" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="27" t="s">
+    <row r="29" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B29" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C29" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D29" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="30" t="s">
+    <row r="30" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B30" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C30" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D30" s="32" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>65</v>
@@ -3416,7 +3422,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>65</v>
@@ -3430,7 +3436,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>65</v>
@@ -3443,22 +3449,22 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>76</v>
+      <c r="C34" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>65</v>
@@ -3471,22 +3477,22 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>100</v>
+      <c r="A36" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>65</v>
@@ -3500,7 +3506,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>65</v>
@@ -3513,30 +3519,72 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>78</v>
+      <c r="A39" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="22" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Книга учёта КД.xlsx
+++ b/Книга учёта КД.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Altium\SM_Project\QUANTUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069671F0-4766-459F-B4FF-59CFF68BFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AA2A54-64E3-4A5F-B400-866F0EB68267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1482" yWindow="1542" windowWidth="17520" windowHeight="12138" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инв. книга" sheetId="1" r:id="rId1"/>
@@ -1285,8 +1285,8 @@
   </sheetPr>
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="C15" sqref="A15:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2988,8 +2988,8 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.55000000000000004"/>
@@ -3267,17 +3267,17 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>100</v>
+      <c r="D20" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">

--- a/Книга учёта КД.xlsx
+++ b/Книга учёта КД.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Altium\SM_Project\QUANTUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AA2A54-64E3-4A5F-B400-866F0EB68267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737C814C-4AFF-423C-9A61-0CFD6CEB5B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1482" yWindow="1542" windowWidth="17520" windowHeight="12138" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инв. книга" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="149">
   <si>
     <r>
       <t>Qantum-2U Grandmaster</t>
@@ -259,21 +259,6 @@
     </r>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
     <t>468157</t>
   </si>
   <si>
@@ -325,12 +310,6 @@
     <t>Управляющая материнская плата</t>
   </si>
   <si>
-    <t>Приемник навигационный RCB</t>
-  </si>
-  <si>
-    <t>Приемник навигационный M2</t>
-  </si>
-  <si>
     <t>467879</t>
   </si>
   <si>
@@ -466,36 +445,9 @@
     <t>B2C CAM модуль</t>
   </si>
   <si>
-    <t>ТЕНШ.467883.002.00.000</t>
-  </si>
-  <si>
-    <t>ТЕНШ.467883.002.00.001</t>
-  </si>
-  <si>
-    <t>ТЕНШ.467883.002.00.002</t>
-  </si>
-  <si>
-    <t>ТЕНШ.467883.002.00.003</t>
-  </si>
-  <si>
-    <t>ТЕНШ.467883.002.00.004</t>
-  </si>
-  <si>
-    <t>ТЕНШ.467883.002.00.005</t>
-  </si>
-  <si>
-    <t>ТЕНШ.467883.002.00.006</t>
-  </si>
-  <si>
-    <t>ТЕНШ.467883.002.10.000</t>
-  </si>
-  <si>
     <t>Quantum-Grand Mini</t>
   </si>
   <si>
-    <t>ТЕНШ.467883.002.11.000</t>
-  </si>
-  <si>
     <t>Уголок</t>
   </si>
   <si>
@@ -517,43 +469,139 @@
     <t>Модуль процессорный</t>
   </si>
   <si>
-    <t>ТЕНШ.467883.002.12.000</t>
-  </si>
-  <si>
     <t>Основание в сборе</t>
   </si>
   <si>
     <t>Основание</t>
   </si>
   <si>
-    <t>ТЕНШ.467883.002.11.001</t>
-  </si>
-  <si>
-    <t>ТЕНШ.467883.002.13.000</t>
-  </si>
-  <si>
-    <t>ТЕНШ.467883.002.13.001</t>
-  </si>
-  <si>
     <t>Сервер времени специализированный</t>
   </si>
   <si>
     <t>Без разъемов</t>
   </si>
   <si>
-    <t>ТЕНШ.467883.001.00.000</t>
-  </si>
-  <si>
-    <t>ТЕНШ.467883.001.10.000</t>
-  </si>
-  <si>
-    <t>ТЕНШ.467883.001.11.001</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сборка платы </t>
   </si>
   <si>
     <t>Головная сборка с брекетом и жгутами GPS</t>
+  </si>
+  <si>
+    <t>Сервер времени специализированный. Time-Stick</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.01.00.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.01.10.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.01.10.001</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.00.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.10.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.11.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.11.001</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.12.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.13.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.13.001</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.00.001</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.00.002</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.00.003</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.00.004</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.00.005</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.02.00.006</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.04.00.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.04.10.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.467883.04.10.001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Приемник навигационный RCB-NEO-M9N</t>
+  </si>
+  <si>
+    <t>Приемник навигационный M2-NEO-M9N</t>
+  </si>
+  <si>
+    <t>Приемник навигационный M2-ZED-F9T</t>
+  </si>
+  <si>
+    <t>Приемник навигационный RCB-F9T</t>
+  </si>
+  <si>
+    <t>ТЕНШ.468157.01.00.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.468157</t>
+  </si>
+  <si>
+    <t>ПРИЕМНИКИ НАВИГАЦИОННЫЕ</t>
+  </si>
+  <si>
+    <t>ТЕНШ.468157.01.00.001</t>
+  </si>
+  <si>
+    <t>ТЕНШ.468157.02.00.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.468157.02.00.001</t>
+  </si>
+  <si>
+    <t>ТЕНШ.468157.03.00.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.468157.03.00.001</t>
+  </si>
+  <si>
+    <t>ТЕНШ.468157.04.00.000</t>
+  </si>
+  <si>
+    <t>ТЕНШ.468157.04.00.001</t>
   </si>
 </sst>
 </file>
@@ -745,7 +793,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +827,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8BEF4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -998,6 +1052,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1006,6 +1070,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD8BEF4"/>
+      <color rgb="FF9933FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1283,10 +1353,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1301,7 +1371,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="38" t="s">
@@ -1342,7 +1412,7 @@
         <v>463269</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>21</v>
@@ -1356,7 +1426,7 @@
         <v>463269</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>22</v>
@@ -1367,10 +1437,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>29</v>
@@ -1384,7 +1454,7 @@
         <v>464349</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>29</v>
@@ -1398,7 +1468,7 @@
         <v>464349</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>29</v>
@@ -1412,7 +1482,7 @@
         <v>464349</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>29</v>
@@ -1423,13 +1493,13 @@
     </row>
     <row r="10" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1437,13 +1507,13 @@
     </row>
     <row r="11" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1451,13 +1521,13 @@
     </row>
     <row r="12" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1465,13 +1535,13 @@
     </row>
     <row r="13" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1482,7 +1552,7 @@
         <v>467883</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>24</v>
@@ -1496,7 +1566,7 @@
         <v>467883</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>25</v>
@@ -1510,7 +1580,7 @@
         <v>467883</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>26</v>
@@ -1524,7 +1594,7 @@
         <v>467883</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>27</v>
@@ -1538,7 +1608,7 @@
         <v>467883</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>28</v>
@@ -1549,13 +1619,13 @@
     </row>
     <row r="19" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -1563,13 +1633,13 @@
     </row>
     <row r="20" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1577,13 +1647,13 @@
     </row>
     <row r="21" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="22" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1591,13 +1661,13 @@
     </row>
     <row r="22" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="22" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1605,13 +1675,13 @@
     </row>
     <row r="23" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1619,30 +1689,42 @@
     </row>
     <row r="24" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -1706,7 +1788,7 @@
     <row r="34" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
-      <c r="C34" s="16"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -1714,7 +1796,7 @@
     <row r="35" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
-      <c r="C35" s="16"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -2966,6 +3048,22 @@
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
       <c r="F191" s="16"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="22"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="22"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2986,10 +3084,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.55000000000000004"/>
@@ -3002,13 +3100,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>31</v>
@@ -3016,576 +3114,756 @@
     </row>
     <row r="2" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="22" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="22" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="22" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="30" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="22" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="30" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="22" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="22" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="22" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="22" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="22" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="15" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="29"/>
+    </row>
+    <row r="37" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="29"/>
+    </row>
+    <row r="39" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="22"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="22"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="22"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="22"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>78</v>
+      <c r="B58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Книга учёта КД.xlsx
+++ b/Книга учёта КД.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Altium\SM_Project\QUANTUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEHA\Documents\GitHub\QUANTUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737C814C-4AFF-423C-9A61-0CFD6CEB5B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BF4808-44C7-4926-9E56-D57B035E6F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инв. книга" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="153">
   <si>
     <r>
       <t>Qantum-2U Grandmaster</t>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>ТЕНШ.468157.04.00.001</t>
+  </si>
+  <si>
+    <t>Приемник навигационный RCB-прецизионный</t>
+  </si>
+  <si>
+    <t>Приемник навигационный M2-прецизионный</t>
+  </si>
+  <si>
+    <t>Приемник навигационный RCB</t>
+  </si>
+  <si>
+    <t>Приемник навигационный M2</t>
   </si>
 </sst>
 </file>
@@ -1015,6 +1027,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1052,16 +1074,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1355,51 +1367,51 @@
   </sheetPr>
   <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C22"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19" style="23" customWidth="1"/>
-    <col min="3" max="3" width="68.68359375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.83984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="53.15625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.15625" style="3"/>
+    <col min="3" max="3" width="68.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="15"/>
@@ -1407,7 +1419,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>463269</v>
       </c>
@@ -1421,7 +1433,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>463269</v>
       </c>
@@ -1435,7 +1447,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -1449,7 +1461,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>464349</v>
       </c>
@@ -1463,7 +1475,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>464349</v>
       </c>
@@ -1477,7 +1489,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>464349</v>
       </c>
@@ -1491,7 +1503,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
@@ -1505,7 +1517,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>49</v>
       </c>
@@ -1519,7 +1531,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>51</v>
       </c>
@@ -1533,7 +1545,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>51</v>
       </c>
@@ -1547,7 +1559,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>467883</v>
       </c>
@@ -1561,7 +1573,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>467883</v>
       </c>
@@ -1575,7 +1587,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>467883</v>
       </c>
@@ -1589,7 +1601,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>467883</v>
       </c>
@@ -1603,7 +1615,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>467883</v>
       </c>
@@ -1617,7 +1629,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>42</v>
       </c>
@@ -1625,13 +1637,13 @@
         <v>130</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>42</v>
       </c>
@@ -1639,13 +1651,13 @@
         <v>131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>42</v>
       </c>
@@ -1653,13 +1665,13 @@
         <v>133</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>42</v>
       </c>
@@ -1667,13 +1679,13 @@
         <v>132</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>53</v>
       </c>
@@ -1687,7 +1699,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>44</v>
       </c>
@@ -1701,7 +1713,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>46</v>
       </c>
@@ -1715,7 +1727,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>46</v>
       </c>
@@ -1729,7 +1741,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="15"/>
@@ -1737,7 +1749,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="15"/>
@@ -1745,7 +1757,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="15"/>
@@ -1753,7 +1765,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="15"/>
@@ -1761,7 +1773,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="15"/>
@@ -1769,7 +1781,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="15"/>
@@ -1777,7 +1789,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="15"/>
@@ -1785,7 +1797,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="15"/>
@@ -1793,7 +1805,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="15"/>
@@ -1801,7 +1813,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="16"/>
@@ -1809,7 +1821,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="16"/>
@@ -1817,7 +1829,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="16"/>
@@ -1825,7 +1837,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
     </row>
-    <row r="39" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="16"/>
@@ -1833,7 +1845,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="16"/>
@@ -1841,7 +1853,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="16"/>
@@ -1849,7 +1861,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="16"/>
@@ -1857,7 +1869,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="16"/>
@@ -1865,7 +1877,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="16"/>
@@ -1873,7 +1885,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="16"/>
@@ -1881,7 +1893,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="16"/>
@@ -1889,7 +1901,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="16"/>
@@ -1897,7 +1909,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="16"/>
@@ -1905,7 +1917,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="16"/>
@@ -1913,7 +1925,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="16"/>
@@ -1921,7 +1933,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="16"/>
@@ -1929,7 +1941,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="16"/>
@@ -1937,7 +1949,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="16"/>
@@ -1945,7 +1957,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="16"/>
@@ -1953,7 +1965,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="16"/>
@@ -1961,7 +1973,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
     </row>
-    <row r="56" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="16"/>
@@ -1969,7 +1981,7 @@
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
     </row>
-    <row r="57" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="16"/>
@@ -1977,7 +1989,7 @@
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
     </row>
-    <row r="58" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="16"/>
@@ -1985,7 +1997,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
-    <row r="59" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="16"/>
@@ -1993,7 +2005,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
-    <row r="60" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="16"/>
@@ -2001,7 +2013,7 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
-    <row r="61" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="16"/>
@@ -2009,7 +2021,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="16"/>
@@ -2017,7 +2029,7 @@
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
     </row>
-    <row r="63" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="16"/>
@@ -2025,7 +2037,7 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
     </row>
-    <row r="64" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="16"/>
@@ -2033,7 +2045,7 @@
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
-    <row r="65" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="16"/>
@@ -2041,7 +2053,7 @@
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
-    <row r="66" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="16"/>
@@ -2049,7 +2061,7 @@
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
     </row>
-    <row r="67" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="16"/>
@@ -2057,7 +2069,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
-    <row r="68" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="16"/>
@@ -2065,7 +2077,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="16"/>
@@ -2073,7 +2085,7 @@
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
-    <row r="70" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="16"/>
@@ -2081,7 +2093,7 @@
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
-    <row r="71" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="16"/>
@@ -2089,7 +2101,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
-    <row r="72" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="16"/>
@@ -2097,7 +2109,7 @@
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
     </row>
-    <row r="73" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="16"/>
@@ -2105,7 +2117,7 @@
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
     </row>
-    <row r="74" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="16"/>
@@ -2113,7 +2125,7 @@
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
     </row>
-    <row r="75" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="16"/>
@@ -2121,7 +2133,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
     </row>
-    <row r="76" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="16"/>
@@ -2129,7 +2141,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="16"/>
@@ -2137,7 +2149,7 @@
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
     </row>
-    <row r="78" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="16"/>
@@ -2145,7 +2157,7 @@
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
     </row>
-    <row r="79" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="16"/>
@@ -2153,7 +2165,7 @@
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
     </row>
-    <row r="80" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="16"/>
@@ -2161,7 +2173,7 @@
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
     </row>
-    <row r="81" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="16"/>
@@ -2169,7 +2181,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="16"/>
@@ -2177,7 +2189,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="16"/>
@@ -2185,7 +2197,7 @@
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="16"/>
@@ -2193,7 +2205,7 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="16"/>
@@ -2201,7 +2213,7 @@
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="16"/>
@@ -2209,7 +2221,7 @@
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="16"/>
@@ -2217,7 +2229,7 @@
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="16"/>
@@ -2225,7 +2237,7 @@
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="16"/>
@@ -2233,7 +2245,7 @@
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="16"/>
@@ -2241,7 +2253,7 @@
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="16"/>
@@ -2249,7 +2261,7 @@
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="16"/>
@@ -2257,7 +2269,7 @@
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
     </row>
-    <row r="93" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="16"/>
@@ -2265,7 +2277,7 @@
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="16"/>
@@ -2273,7 +2285,7 @@
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="16"/>
@@ -2281,7 +2293,7 @@
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="16"/>
@@ -2289,7 +2301,7 @@
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="16"/>
@@ -2297,7 +2309,7 @@
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="16"/>
@@ -2305,7 +2317,7 @@
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="16"/>
@@ -2313,7 +2325,7 @@
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
     </row>
-    <row r="100" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="16"/>
@@ -2321,7 +2333,7 @@
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="16"/>
@@ -2329,7 +2341,7 @@
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="22"/>
       <c r="B102" s="22"/>
       <c r="C102" s="16"/>
@@ -2337,7 +2349,7 @@
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="16"/>
@@ -2345,7 +2357,7 @@
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="16"/>
@@ -2353,7 +2365,7 @@
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="16"/>
@@ -2361,7 +2373,7 @@
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
     </row>
-    <row r="106" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="16"/>
@@ -2369,7 +2381,7 @@
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
     </row>
-    <row r="107" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="16"/>
@@ -2377,7 +2389,7 @@
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
     </row>
-    <row r="108" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="16"/>
@@ -2385,7 +2397,7 @@
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
     </row>
-    <row r="109" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="16"/>
@@ -2393,7 +2405,7 @@
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
     </row>
-    <row r="110" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="16"/>
@@ -2401,7 +2413,7 @@
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
     </row>
-    <row r="111" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="16"/>
@@ -2409,7 +2421,7 @@
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
     </row>
-    <row r="112" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="16"/>
@@ -2417,7 +2429,7 @@
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="16"/>
@@ -2425,7 +2437,7 @@
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
     </row>
-    <row r="114" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="16"/>
@@ -2433,7 +2445,7 @@
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
     </row>
-    <row r="115" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="16"/>
@@ -2441,7 +2453,7 @@
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
     </row>
-    <row r="116" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="16"/>
@@ -2449,7 +2461,7 @@
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
     </row>
-    <row r="117" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="16"/>
@@ -2457,7 +2469,7 @@
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
     </row>
-    <row r="118" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="16"/>
@@ -2465,7 +2477,7 @@
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
     </row>
-    <row r="119" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="16"/>
@@ -2473,7 +2485,7 @@
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
     </row>
-    <row r="120" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="16"/>
@@ -2481,7 +2493,7 @@
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
     </row>
-    <row r="121" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="22"/>
       <c r="B121" s="22"/>
       <c r="C121" s="16"/>
@@ -2489,7 +2501,7 @@
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
     </row>
-    <row r="122" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="22"/>
       <c r="B122" s="22"/>
       <c r="C122" s="16"/>
@@ -2497,7 +2509,7 @@
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
     </row>
-    <row r="123" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="16"/>
@@ -2505,7 +2517,7 @@
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
     </row>
-    <row r="124" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="22"/>
       <c r="B124" s="22"/>
       <c r="C124" s="16"/>
@@ -2513,7 +2525,7 @@
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
     </row>
-    <row r="125" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="22"/>
       <c r="B125" s="22"/>
       <c r="C125" s="16"/>
@@ -2521,7 +2533,7 @@
       <c r="E125" s="16"/>
       <c r="F125" s="16"/>
     </row>
-    <row r="126" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="22"/>
       <c r="B126" s="22"/>
       <c r="C126" s="16"/>
@@ -2529,7 +2541,7 @@
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
     </row>
-    <row r="127" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="C127" s="16"/>
@@ -2537,7 +2549,7 @@
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
     </row>
-    <row r="128" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="22"/>
       <c r="B128" s="22"/>
       <c r="C128" s="16"/>
@@ -2545,7 +2557,7 @@
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
     </row>
-    <row r="129" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="22"/>
       <c r="B129" s="22"/>
       <c r="C129" s="16"/>
@@ -2553,7 +2565,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
     </row>
-    <row r="130" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
       <c r="C130" s="16"/>
@@ -2561,7 +2573,7 @@
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
     </row>
-    <row r="131" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="22"/>
       <c r="B131" s="22"/>
       <c r="C131" s="16"/>
@@ -2569,7 +2581,7 @@
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="22"/>
       <c r="B132" s="22"/>
       <c r="C132" s="16"/>
@@ -2577,7 +2589,7 @@
       <c r="E132" s="16"/>
       <c r="F132" s="16"/>
     </row>
-    <row r="133" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="16"/>
@@ -2585,7 +2597,7 @@
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
     </row>
-    <row r="134" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="16"/>
@@ -2593,7 +2605,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="16"/>
     </row>
-    <row r="135" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="16"/>
@@ -2601,7 +2613,7 @@
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
     </row>
-    <row r="136" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="16"/>
@@ -2609,7 +2621,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
     </row>
-    <row r="137" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="16"/>
@@ -2617,7 +2629,7 @@
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
     </row>
-    <row r="138" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="16"/>
@@ -2625,7 +2637,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
     </row>
-    <row r="139" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="16"/>
@@ -2633,7 +2645,7 @@
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
     </row>
-    <row r="140" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="16"/>
@@ -2641,7 +2653,7 @@
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
     </row>
-    <row r="141" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="16"/>
@@ -2649,7 +2661,7 @@
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
     </row>
-    <row r="142" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="16"/>
@@ -2657,7 +2669,7 @@
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
     </row>
-    <row r="143" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="16"/>
@@ -2665,7 +2677,7 @@
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
     </row>
-    <row r="144" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="16"/>
@@ -2673,7 +2685,7 @@
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
     </row>
-    <row r="145" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
       <c r="C145" s="16"/>
@@ -2681,7 +2693,7 @@
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
     </row>
-    <row r="146" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="22"/>
       <c r="B146" s="22"/>
       <c r="C146" s="16"/>
@@ -2689,7 +2701,7 @@
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
     </row>
-    <row r="147" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="22"/>
       <c r="B147" s="22"/>
       <c r="C147" s="16"/>
@@ -2697,7 +2709,7 @@
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="16"/>
@@ -2705,7 +2717,7 @@
       <c r="E148" s="16"/>
       <c r="F148" s="16"/>
     </row>
-    <row r="149" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
       <c r="C149" s="16"/>
@@ -2713,7 +2725,7 @@
       <c r="E149" s="16"/>
       <c r="F149" s="16"/>
     </row>
-    <row r="150" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="22"/>
       <c r="B150" s="22"/>
       <c r="C150" s="16"/>
@@ -2721,7 +2733,7 @@
       <c r="E150" s="16"/>
       <c r="F150" s="16"/>
     </row>
-    <row r="151" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="22"/>
       <c r="B151" s="22"/>
       <c r="C151" s="16"/>
@@ -2729,7 +2741,7 @@
       <c r="E151" s="16"/>
       <c r="F151" s="16"/>
     </row>
-    <row r="152" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="22"/>
       <c r="B152" s="22"/>
       <c r="C152" s="16"/>
@@ -2737,7 +2749,7 @@
       <c r="E152" s="16"/>
       <c r="F152" s="16"/>
     </row>
-    <row r="153" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="22"/>
       <c r="B153" s="22"/>
       <c r="C153" s="16"/>
@@ -2745,7 +2757,7 @@
       <c r="E153" s="16"/>
       <c r="F153" s="16"/>
     </row>
-    <row r="154" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="22"/>
       <c r="B154" s="22"/>
       <c r="C154" s="16"/>
@@ -2753,7 +2765,7 @@
       <c r="E154" s="16"/>
       <c r="F154" s="16"/>
     </row>
-    <row r="155" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="22"/>
       <c r="B155" s="22"/>
       <c r="C155" s="16"/>
@@ -2761,7 +2773,7 @@
       <c r="E155" s="16"/>
       <c r="F155" s="16"/>
     </row>
-    <row r="156" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="22"/>
       <c r="B156" s="22"/>
       <c r="C156" s="16"/>
@@ -2769,7 +2781,7 @@
       <c r="E156" s="16"/>
       <c r="F156" s="16"/>
     </row>
-    <row r="157" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
       <c r="C157" s="16"/>
@@ -2777,7 +2789,7 @@
       <c r="E157" s="16"/>
       <c r="F157" s="16"/>
     </row>
-    <row r="158" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="16"/>
@@ -2785,7 +2797,7 @@
       <c r="E158" s="16"/>
       <c r="F158" s="16"/>
     </row>
-    <row r="159" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="22"/>
       <c r="B159" s="22"/>
       <c r="C159" s="16"/>
@@ -2793,7 +2805,7 @@
       <c r="E159" s="16"/>
       <c r="F159" s="16"/>
     </row>
-    <row r="160" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="22"/>
       <c r="B160" s="22"/>
       <c r="C160" s="16"/>
@@ -2801,7 +2813,7 @@
       <c r="E160" s="16"/>
       <c r="F160" s="16"/>
     </row>
-    <row r="161" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="22"/>
       <c r="B161" s="22"/>
       <c r="C161" s="16"/>
@@ -2809,7 +2821,7 @@
       <c r="E161" s="16"/>
       <c r="F161" s="16"/>
     </row>
-    <row r="162" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="22"/>
       <c r="B162" s="22"/>
       <c r="C162" s="16"/>
@@ -2817,7 +2829,7 @@
       <c r="E162" s="16"/>
       <c r="F162" s="16"/>
     </row>
-    <row r="163" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="22"/>
       <c r="B163" s="22"/>
       <c r="C163" s="16"/>
@@ -2825,7 +2837,7 @@
       <c r="E163" s="16"/>
       <c r="F163" s="16"/>
     </row>
-    <row r="164" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
       <c r="C164" s="16"/>
@@ -2833,7 +2845,7 @@
       <c r="E164" s="16"/>
       <c r="F164" s="16"/>
     </row>
-    <row r="165" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="22"/>
       <c r="B165" s="22"/>
       <c r="C165" s="16"/>
@@ -2841,7 +2853,7 @@
       <c r="E165" s="16"/>
       <c r="F165" s="16"/>
     </row>
-    <row r="166" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="22"/>
       <c r="B166" s="22"/>
       <c r="C166" s="16"/>
@@ -2849,7 +2861,7 @@
       <c r="E166" s="16"/>
       <c r="F166" s="16"/>
     </row>
-    <row r="167" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="22"/>
       <c r="B167" s="22"/>
       <c r="C167" s="16"/>
@@ -2857,7 +2869,7 @@
       <c r="E167" s="16"/>
       <c r="F167" s="16"/>
     </row>
-    <row r="168" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="22"/>
       <c r="B168" s="22"/>
       <c r="C168" s="16"/>
@@ -2865,7 +2877,7 @@
       <c r="E168" s="16"/>
       <c r="F168" s="16"/>
     </row>
-    <row r="169" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="22"/>
       <c r="B169" s="22"/>
       <c r="C169" s="16"/>
@@ -2873,7 +2885,7 @@
       <c r="E169" s="16"/>
       <c r="F169" s="16"/>
     </row>
-    <row r="170" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="22"/>
       <c r="B170" s="22"/>
       <c r="C170" s="16"/>
@@ -2881,7 +2893,7 @@
       <c r="E170" s="16"/>
       <c r="F170" s="16"/>
     </row>
-    <row r="171" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="22"/>
       <c r="B171" s="22"/>
       <c r="C171" s="16"/>
@@ -2889,7 +2901,7 @@
       <c r="E171" s="16"/>
       <c r="F171" s="16"/>
     </row>
-    <row r="172" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="22"/>
       <c r="B172" s="22"/>
       <c r="C172" s="16"/>
@@ -2897,7 +2909,7 @@
       <c r="E172" s="16"/>
       <c r="F172" s="16"/>
     </row>
-    <row r="173" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="22"/>
       <c r="B173" s="22"/>
       <c r="C173" s="16"/>
@@ -2905,7 +2917,7 @@
       <c r="E173" s="16"/>
       <c r="F173" s="16"/>
     </row>
-    <row r="174" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="22"/>
       <c r="B174" s="22"/>
       <c r="C174" s="16"/>
@@ -2913,7 +2925,7 @@
       <c r="E174" s="16"/>
       <c r="F174" s="16"/>
     </row>
-    <row r="175" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="22"/>
       <c r="B175" s="22"/>
       <c r="C175" s="16"/>
@@ -2921,7 +2933,7 @@
       <c r="E175" s="16"/>
       <c r="F175" s="16"/>
     </row>
-    <row r="176" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="22"/>
       <c r="B176" s="22"/>
       <c r="C176" s="16"/>
@@ -2929,7 +2941,7 @@
       <c r="E176" s="16"/>
       <c r="F176" s="16"/>
     </row>
-    <row r="177" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="22"/>
       <c r="B177" s="22"/>
       <c r="C177" s="16"/>
@@ -2937,7 +2949,7 @@
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
     </row>
-    <row r="178" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="22"/>
       <c r="B178" s="22"/>
       <c r="C178" s="16"/>
@@ -2945,7 +2957,7 @@
       <c r="E178" s="16"/>
       <c r="F178" s="16"/>
     </row>
-    <row r="179" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="22"/>
       <c r="B179" s="22"/>
       <c r="C179" s="16"/>
@@ -2953,7 +2965,7 @@
       <c r="E179" s="16"/>
       <c r="F179" s="16"/>
     </row>
-    <row r="180" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="22"/>
       <c r="B180" s="22"/>
       <c r="C180" s="16"/>
@@ -2961,7 +2973,7 @@
       <c r="E180" s="16"/>
       <c r="F180" s="16"/>
     </row>
-    <row r="181" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="22"/>
       <c r="B181" s="22"/>
       <c r="C181" s="16"/>
@@ -2969,7 +2981,7 @@
       <c r="E181" s="16"/>
       <c r="F181" s="16"/>
     </row>
-    <row r="182" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="22"/>
       <c r="B182" s="22"/>
       <c r="C182" s="16"/>
@@ -2977,7 +2989,7 @@
       <c r="E182" s="16"/>
       <c r="F182" s="16"/>
     </row>
-    <row r="183" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="22"/>
       <c r="B183" s="22"/>
       <c r="C183" s="16"/>
@@ -2985,7 +2997,7 @@
       <c r="E183" s="16"/>
       <c r="F183" s="16"/>
     </row>
-    <row r="184" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="22"/>
       <c r="B184" s="22"/>
       <c r="C184" s="16"/>
@@ -2993,7 +3005,7 @@
       <c r="E184" s="16"/>
       <c r="F184" s="16"/>
     </row>
-    <row r="185" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="22"/>
       <c r="B185" s="22"/>
       <c r="C185" s="16"/>
@@ -3001,7 +3013,7 @@
       <c r="E185" s="16"/>
       <c r="F185" s="16"/>
     </row>
-    <row r="186" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="22"/>
       <c r="B186" s="22"/>
       <c r="C186" s="16"/>
@@ -3009,7 +3021,7 @@
       <c r="E186" s="16"/>
       <c r="F186" s="16"/>
     </row>
-    <row r="187" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="22"/>
       <c r="B187" s="22"/>
       <c r="C187" s="16"/>
@@ -3017,7 +3029,7 @@
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
     </row>
-    <row r="188" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="22"/>
       <c r="B188" s="22"/>
       <c r="C188" s="16"/>
@@ -3025,7 +3037,7 @@
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
     </row>
-    <row r="189" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="22"/>
       <c r="B189" s="22"/>
       <c r="C189" s="16"/>
@@ -3033,7 +3045,7 @@
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
     </row>
-    <row r="190" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="22"/>
       <c r="B190" s="22"/>
       <c r="C190" s="16"/>
@@ -3041,7 +3053,7 @@
       <c r="E190" s="16"/>
       <c r="F190" s="16"/>
     </row>
-    <row r="191" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="22"/>
       <c r="B191" s="22"/>
       <c r="C191" s="16"/>
@@ -3049,7 +3061,7 @@
       <c r="E191" s="16"/>
       <c r="F191" s="16"/>
     </row>
-    <row r="192" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="22"/>
       <c r="B192" s="22"/>
       <c r="C192" s="16"/>
@@ -3057,7 +3069,7 @@
       <c r="E192" s="16"/>
       <c r="F192" s="16"/>
     </row>
-    <row r="193" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="22"/>
       <c r="B193" s="22"/>
       <c r="C193" s="16"/>
@@ -3086,19 +3098,19 @@
   </sheetPr>
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.578125" customWidth="1"/>
-    <col min="2" max="2" width="55.05078125" customWidth="1"/>
-    <col min="3" max="3" width="11.05078125" customWidth="1"/>
-    <col min="4" max="4" width="36.578125" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>64</v>
       </c>
@@ -3112,7 +3124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>61</v>
       </c>
@@ -3126,7 +3138,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>76</v>
       </c>
@@ -3140,7 +3152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>77</v>
       </c>
@@ -3154,7 +3166,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>55</v>
       </c>
@@ -3168,7 +3180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>56</v>
       </c>
@@ -3182,7 +3194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>62</v>
       </c>
@@ -3196,7 +3208,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>78</v>
       </c>
@@ -3210,7 +3222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>79</v>
       </c>
@@ -3224,7 +3236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>55</v>
       </c>
@@ -3238,7 +3250,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>56</v>
       </c>
@@ -3252,7 +3264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>111</v>
       </c>
@@ -3266,7 +3278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>112</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>113</v>
       </c>
@@ -3294,7 +3306,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
@@ -3308,7 +3320,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>115</v>
       </c>
@@ -3322,7 +3334,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>116</v>
       </c>
@@ -3336,7 +3348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>117</v>
       </c>
@@ -3350,7 +3362,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>118</v>
       </c>
@@ -3364,7 +3376,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>119</v>
       </c>
@@ -3378,7 +3390,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>120</v>
       </c>
@@ -3392,7 +3404,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>121</v>
       </c>
@@ -3406,7 +3418,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>122</v>
       </c>
@@ -3420,7 +3432,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>123</v>
       </c>
@@ -3434,7 +3446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>124</v>
       </c>
@@ -3448,7 +3460,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>125</v>
       </c>
@@ -3462,7 +3474,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>126</v>
       </c>
@@ -3476,7 +3488,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>127</v>
       </c>
@@ -3490,7 +3502,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>128</v>
       </c>
@@ -3504,7 +3516,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>129</v>
       </c>
@@ -3518,21 +3530,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="49" t="s">
+    <row r="31" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-    </row>
-    <row r="32" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="39" t="s">
         <v>135</v>
       </c>
       <c r="C32" s="28" t="s">
@@ -3540,7 +3552,7 @@
       </c>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>142</v>
       </c>
@@ -3554,11 +3566,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="39" t="s">
         <v>136</v>
       </c>
       <c r="C34" s="28" t="s">
@@ -3566,7 +3578,7 @@
       </c>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>144</v>
       </c>
@@ -3580,11 +3592,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="39" t="s">
         <v>138</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -3592,7 +3604,7 @@
       </c>
       <c r="D36" s="29"/>
     </row>
-    <row r="37" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>146</v>
       </c>
@@ -3606,11 +3618,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="39" t="s">
         <v>137</v>
       </c>
       <c r="C38" s="28" t="s">
@@ -3618,7 +3630,7 @@
       </c>
       <c r="D38" s="29"/>
     </row>
-    <row r="39" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>148</v>
       </c>
@@ -3632,31 +3644,31 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="24"/>
     </row>
-    <row r="41" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="24"/>
     </row>
-    <row r="42" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="24"/>
     </row>
-    <row r="43" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="24"/>
     </row>
-    <row r="44" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>73</v>
       </c>
@@ -3670,7 +3682,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>80</v>
       </c>
@@ -3684,7 +3696,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>86</v>
       </c>
@@ -3698,7 +3710,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>88</v>
       </c>
@@ -3712,7 +3724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>89</v>
       </c>
@@ -3726,7 +3738,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>87</v>
       </c>
@@ -3740,7 +3752,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>90</v>
       </c>
@@ -3754,7 +3766,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>91</v>
       </c>
@@ -3768,7 +3780,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>82</v>
       </c>
@@ -3782,7 +3794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>83</v>
       </c>
@@ -3796,7 +3808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>81</v>
       </c>
@@ -3810,7 +3822,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>84</v>
       </c>
@@ -3824,7 +3836,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>85</v>
       </c>
@@ -3838,7 +3850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>74</v>
       </c>
@@ -3852,7 +3864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>75</v>
       </c>
@@ -3883,29 +3895,29 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.68359375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.15625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.41796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.15625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="66.41796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="66.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="24" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.26171875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="39.68359375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="3"/>
+    <col min="7" max="7" width="12.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3913,42 +3925,42 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-    </row>
-    <row r="4" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-    </row>
-    <row r="5" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -3959,59 +3971,59 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="202.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:9" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" s="45" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" s="45"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" s="45"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" s="45"/>
-    </row>
-    <row r="26" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="44" t="s">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="49"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="49"/>
+    </row>
+    <row r="26" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-    </row>
-    <row r="27" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+    </row>
+    <row r="27" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4037,111 +4049,111 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.578125" customWidth="1"/>
-    <col min="2" max="2" width="61.15625" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-    </row>
-    <row r="6" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -4149,37 +4161,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="62.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="65.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -4187,7 +4199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>

--- a/Книга учёта КД.xlsx
+++ b/Книга учёта КД.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEHA\Documents\GitHub\QUANTUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleks\GitHub\QUANTUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BF4808-44C7-4926-9E56-D57B035E6F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D56613-2E54-4245-A9F3-153B1A4ADD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инв. книга" sheetId="1" r:id="rId1"/>
@@ -24,26 +24,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Инв. книга'!$B:$F</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Титульный лист'!$A:$I</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="155">
   <si>
     <r>
       <t>Qantum-2U Grandmaster</t>
@@ -173,9 +164,6 @@
     <t>Сервер времени специализированный. Quantum-Time stick</t>
   </si>
   <si>
-    <t xml:space="preserve">Сервер времени специализированный. Quantum-1/2U Grandmaster </t>
-  </si>
-  <si>
     <t>ГНСС антенна</t>
   </si>
   <si>
@@ -614,6 +602,15 @@
   </si>
   <si>
     <t>Приемник навигационный M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сервер времени специализированный. Quantum-1U Grandmaster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сервер времени специализированный. Quantum-2U Grandmaster </t>
+  </si>
+  <si>
+    <t>06</t>
   </si>
 </sst>
 </file>
@@ -1365,53 +1362,53 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="19" style="23" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="68.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="42" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>39</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="15"/>
@@ -1419,12 +1416,12 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>463269</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>21</v>
@@ -1433,12 +1430,12 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>463269</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>22</v>
@@ -1447,124 +1444,124 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>464349</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>464349</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>464349</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>467883</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>24</v>
@@ -1573,12 +1570,12 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>467883</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>25</v>
@@ -1587,12 +1584,12 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>467883</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>26</v>
@@ -1601,12 +1598,12 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>467883</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>27</v>
@@ -1615,141 +1612,147 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>467883</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>42</v>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>467883</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="15"/>
@@ -1757,7 +1760,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="15"/>
@@ -1765,7 +1768,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="15"/>
@@ -1773,7 +1776,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="15"/>
@@ -1781,7 +1784,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="15"/>
@@ -1789,7 +1792,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="15"/>
@@ -1797,7 +1800,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="15"/>
@@ -1805,7 +1808,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="15"/>
@@ -1813,15 +1816,15 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="16"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="16"/>
@@ -1829,7 +1832,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="16"/>
@@ -1837,7 +1840,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="16"/>
@@ -1845,7 +1848,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="16"/>
@@ -1853,7 +1856,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="16"/>
@@ -1861,7 +1864,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="16"/>
@@ -1869,7 +1872,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="16"/>
@@ -1877,7 +1880,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="16"/>
@@ -1885,7 +1888,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="16"/>
@@ -1893,7 +1896,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="16"/>
@@ -1901,7 +1904,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="16"/>
@@ -1909,7 +1912,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="16"/>
@@ -1917,7 +1920,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="16"/>
@@ -1925,7 +1928,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="16"/>
@@ -1933,7 +1936,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="16"/>
@@ -1941,7 +1944,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="16"/>
@@ -1949,7 +1952,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="16"/>
@@ -1957,7 +1960,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="16"/>
@@ -1965,7 +1968,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="16"/>
@@ -1973,7 +1976,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="16"/>
@@ -1981,7 +1984,7 @@
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="16"/>
@@ -1989,7 +1992,7 @@
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="16"/>
@@ -1997,7 +2000,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="16"/>
@@ -2005,7 +2008,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="16"/>
@@ -2013,7 +2016,7 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="16"/>
@@ -2021,7 +2024,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="16"/>
@@ -2029,7 +2032,7 @@
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="16"/>
@@ -2037,7 +2040,7 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="16"/>
@@ -2045,7 +2048,7 @@
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="16"/>
@@ -2053,7 +2056,7 @@
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="16"/>
@@ -2061,7 +2064,7 @@
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="16"/>
@@ -2069,7 +2072,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="16"/>
@@ -2077,7 +2080,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="16"/>
@@ -2085,7 +2088,7 @@
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="16"/>
@@ -2093,7 +2096,7 @@
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="16"/>
@@ -2101,7 +2104,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="16"/>
@@ -2109,7 +2112,7 @@
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="16"/>
@@ -2117,7 +2120,7 @@
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="16"/>
@@ -2125,7 +2128,7 @@
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="16"/>
@@ -2133,7 +2136,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="16"/>
@@ -2141,7 +2144,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="16"/>
@@ -2149,7 +2152,7 @@
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="16"/>
@@ -2157,7 +2160,7 @@
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="16"/>
@@ -2165,7 +2168,7 @@
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="16"/>
@@ -2173,7 +2176,7 @@
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
     </row>
-    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="16"/>
@@ -2181,7 +2184,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="16"/>
@@ -2189,7 +2192,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="16"/>
@@ -2197,7 +2200,7 @@
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="16"/>
@@ -2205,7 +2208,7 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="16"/>
@@ -2213,7 +2216,7 @@
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="16"/>
@@ -2221,7 +2224,7 @@
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="16"/>
@@ -2229,7 +2232,7 @@
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="16"/>
@@ -2237,7 +2240,7 @@
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="16"/>
@@ -2245,7 +2248,7 @@
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="16"/>
@@ -2253,7 +2256,7 @@
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="16"/>
@@ -2261,7 +2264,7 @@
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="16"/>
@@ -2269,7 +2272,7 @@
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="16"/>
@@ -2277,7 +2280,7 @@
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="16"/>
@@ -2285,7 +2288,7 @@
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="16"/>
@@ -2293,7 +2296,7 @@
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="16"/>
@@ -2301,7 +2304,7 @@
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="16"/>
@@ -2309,7 +2312,7 @@
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="16"/>
@@ -2317,7 +2320,7 @@
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="16"/>
@@ -2325,7 +2328,7 @@
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
     </row>
-    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="16"/>
@@ -2333,7 +2336,7 @@
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="16"/>
@@ -2341,7 +2344,7 @@
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="22"/>
       <c r="B102" s="22"/>
       <c r="C102" s="16"/>
@@ -2349,7 +2352,7 @@
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="16"/>
@@ -2357,7 +2360,7 @@
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="16"/>
@@ -2365,7 +2368,7 @@
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="16"/>
@@ -2373,7 +2376,7 @@
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
     </row>
-    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="16"/>
@@ -2381,7 +2384,7 @@
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
     </row>
-    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="16"/>
@@ -2389,7 +2392,7 @@
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
     </row>
-    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="16"/>
@@ -2397,7 +2400,7 @@
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="16"/>
@@ -2405,7 +2408,7 @@
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
     </row>
-    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="16"/>
@@ -2413,7 +2416,7 @@
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
     </row>
-    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="16"/>
@@ -2421,7 +2424,7 @@
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
     </row>
-    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="16"/>
@@ -2429,7 +2432,7 @@
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="16"/>
@@ -2437,7 +2440,7 @@
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
     </row>
-    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="16"/>
@@ -2445,7 +2448,7 @@
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
     </row>
-    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="16"/>
@@ -2453,7 +2456,7 @@
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
     </row>
-    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="16"/>
@@ -2461,7 +2464,7 @@
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
     </row>
-    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="16"/>
@@ -2469,7 +2472,7 @@
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
     </row>
-    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="16"/>
@@ -2477,7 +2480,7 @@
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
     </row>
-    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="16"/>
@@ -2485,7 +2488,7 @@
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
     </row>
-    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="16"/>
@@ -2493,7 +2496,7 @@
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
     </row>
-    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="22"/>
       <c r="B121" s="22"/>
       <c r="C121" s="16"/>
@@ -2501,7 +2504,7 @@
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
     </row>
-    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="22"/>
       <c r="B122" s="22"/>
       <c r="C122" s="16"/>
@@ -2509,7 +2512,7 @@
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
     </row>
-    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="16"/>
@@ -2517,7 +2520,7 @@
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
     </row>
-    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="22"/>
       <c r="B124" s="22"/>
       <c r="C124" s="16"/>
@@ -2525,7 +2528,7 @@
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
     </row>
-    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="22"/>
       <c r="B125" s="22"/>
       <c r="C125" s="16"/>
@@ -2533,7 +2536,7 @@
       <c r="E125" s="16"/>
       <c r="F125" s="16"/>
     </row>
-    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="22"/>
       <c r="B126" s="22"/>
       <c r="C126" s="16"/>
@@ -2541,7 +2544,7 @@
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
     </row>
-    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="C127" s="16"/>
@@ -2549,7 +2552,7 @@
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
     </row>
-    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="22"/>
       <c r="B128" s="22"/>
       <c r="C128" s="16"/>
@@ -2557,7 +2560,7 @@
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
     </row>
-    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="22"/>
       <c r="B129" s="22"/>
       <c r="C129" s="16"/>
@@ -2565,7 +2568,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
     </row>
-    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
       <c r="C130" s="16"/>
@@ -2573,7 +2576,7 @@
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
     </row>
-    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="22"/>
       <c r="B131" s="22"/>
       <c r="C131" s="16"/>
@@ -2581,7 +2584,7 @@
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="22"/>
       <c r="B132" s="22"/>
       <c r="C132" s="16"/>
@@ -2589,7 +2592,7 @@
       <c r="E132" s="16"/>
       <c r="F132" s="16"/>
     </row>
-    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="16"/>
@@ -2597,7 +2600,7 @@
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
     </row>
-    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="16"/>
@@ -2605,7 +2608,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="16"/>
     </row>
-    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="16"/>
@@ -2613,7 +2616,7 @@
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
     </row>
-    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="16"/>
@@ -2621,7 +2624,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
     </row>
-    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="16"/>
@@ -2629,7 +2632,7 @@
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
     </row>
-    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="16"/>
@@ -2637,7 +2640,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
     </row>
-    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="16"/>
@@ -2645,7 +2648,7 @@
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
     </row>
-    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="16"/>
@@ -2653,7 +2656,7 @@
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
     </row>
-    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="16"/>
@@ -2661,7 +2664,7 @@
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
     </row>
-    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="16"/>
@@ -2669,7 +2672,7 @@
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
     </row>
-    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="16"/>
@@ -2677,7 +2680,7 @@
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
     </row>
-    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="16"/>
@@ -2685,7 +2688,7 @@
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
     </row>
-    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
       <c r="C145" s="16"/>
@@ -2693,7 +2696,7 @@
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
     </row>
-    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="22"/>
       <c r="B146" s="22"/>
       <c r="C146" s="16"/>
@@ -2701,7 +2704,7 @@
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
     </row>
-    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="22"/>
       <c r="B147" s="22"/>
       <c r="C147" s="16"/>
@@ -2709,7 +2712,7 @@
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="16"/>
@@ -2717,7 +2720,7 @@
       <c r="E148" s="16"/>
       <c r="F148" s="16"/>
     </row>
-    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
       <c r="C149" s="16"/>
@@ -2725,7 +2728,7 @@
       <c r="E149" s="16"/>
       <c r="F149" s="16"/>
     </row>
-    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="22"/>
       <c r="B150" s="22"/>
       <c r="C150" s="16"/>
@@ -2733,7 +2736,7 @@
       <c r="E150" s="16"/>
       <c r="F150" s="16"/>
     </row>
-    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="22"/>
       <c r="B151" s="22"/>
       <c r="C151" s="16"/>
@@ -2741,7 +2744,7 @@
       <c r="E151" s="16"/>
       <c r="F151" s="16"/>
     </row>
-    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="22"/>
       <c r="B152" s="22"/>
       <c r="C152" s="16"/>
@@ -2749,7 +2752,7 @@
       <c r="E152" s="16"/>
       <c r="F152" s="16"/>
     </row>
-    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="22"/>
       <c r="B153" s="22"/>
       <c r="C153" s="16"/>
@@ -2757,7 +2760,7 @@
       <c r="E153" s="16"/>
       <c r="F153" s="16"/>
     </row>
-    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="22"/>
       <c r="B154" s="22"/>
       <c r="C154" s="16"/>
@@ -2765,7 +2768,7 @@
       <c r="E154" s="16"/>
       <c r="F154" s="16"/>
     </row>
-    <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="22"/>
       <c r="B155" s="22"/>
       <c r="C155" s="16"/>
@@ -2773,7 +2776,7 @@
       <c r="E155" s="16"/>
       <c r="F155" s="16"/>
     </row>
-    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="22"/>
       <c r="B156" s="22"/>
       <c r="C156" s="16"/>
@@ -2781,7 +2784,7 @@
       <c r="E156" s="16"/>
       <c r="F156" s="16"/>
     </row>
-    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
       <c r="C157" s="16"/>
@@ -2789,7 +2792,7 @@
       <c r="E157" s="16"/>
       <c r="F157" s="16"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="16"/>
@@ -2797,7 +2800,7 @@
       <c r="E158" s="16"/>
       <c r="F158" s="16"/>
     </row>
-    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="22"/>
       <c r="B159" s="22"/>
       <c r="C159" s="16"/>
@@ -2805,7 +2808,7 @@
       <c r="E159" s="16"/>
       <c r="F159" s="16"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="22"/>
       <c r="B160" s="22"/>
       <c r="C160" s="16"/>
@@ -2813,7 +2816,7 @@
       <c r="E160" s="16"/>
       <c r="F160" s="16"/>
     </row>
-    <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="22"/>
       <c r="B161" s="22"/>
       <c r="C161" s="16"/>
@@ -2821,7 +2824,7 @@
       <c r="E161" s="16"/>
       <c r="F161" s="16"/>
     </row>
-    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="22"/>
       <c r="B162" s="22"/>
       <c r="C162" s="16"/>
@@ -2829,7 +2832,7 @@
       <c r="E162" s="16"/>
       <c r="F162" s="16"/>
     </row>
-    <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="22"/>
       <c r="B163" s="22"/>
       <c r="C163" s="16"/>
@@ -2837,7 +2840,7 @@
       <c r="E163" s="16"/>
       <c r="F163" s="16"/>
     </row>
-    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
       <c r="C164" s="16"/>
@@ -2845,7 +2848,7 @@
       <c r="E164" s="16"/>
       <c r="F164" s="16"/>
     </row>
-    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="22"/>
       <c r="B165" s="22"/>
       <c r="C165" s="16"/>
@@ -2853,7 +2856,7 @@
       <c r="E165" s="16"/>
       <c r="F165" s="16"/>
     </row>
-    <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="22"/>
       <c r="B166" s="22"/>
       <c r="C166" s="16"/>
@@ -2861,7 +2864,7 @@
       <c r="E166" s="16"/>
       <c r="F166" s="16"/>
     </row>
-    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="22"/>
       <c r="B167" s="22"/>
       <c r="C167" s="16"/>
@@ -2869,7 +2872,7 @@
       <c r="E167" s="16"/>
       <c r="F167" s="16"/>
     </row>
-    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="22"/>
       <c r="B168" s="22"/>
       <c r="C168" s="16"/>
@@ -2877,7 +2880,7 @@
       <c r="E168" s="16"/>
       <c r="F168" s="16"/>
     </row>
-    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="22"/>
       <c r="B169" s="22"/>
       <c r="C169" s="16"/>
@@ -2885,7 +2888,7 @@
       <c r="E169" s="16"/>
       <c r="F169" s="16"/>
     </row>
-    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="22"/>
       <c r="B170" s="22"/>
       <c r="C170" s="16"/>
@@ -2893,7 +2896,7 @@
       <c r="E170" s="16"/>
       <c r="F170" s="16"/>
     </row>
-    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="22"/>
       <c r="B171" s="22"/>
       <c r="C171" s="16"/>
@@ -2901,7 +2904,7 @@
       <c r="E171" s="16"/>
       <c r="F171" s="16"/>
     </row>
-    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="22"/>
       <c r="B172" s="22"/>
       <c r="C172" s="16"/>
@@ -2909,7 +2912,7 @@
       <c r="E172" s="16"/>
       <c r="F172" s="16"/>
     </row>
-    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="22"/>
       <c r="B173" s="22"/>
       <c r="C173" s="16"/>
@@ -2917,7 +2920,7 @@
       <c r="E173" s="16"/>
       <c r="F173" s="16"/>
     </row>
-    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="22"/>
       <c r="B174" s="22"/>
       <c r="C174" s="16"/>
@@ -2925,7 +2928,7 @@
       <c r="E174" s="16"/>
       <c r="F174" s="16"/>
     </row>
-    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="22"/>
       <c r="B175" s="22"/>
       <c r="C175" s="16"/>
@@ -2933,7 +2936,7 @@
       <c r="E175" s="16"/>
       <c r="F175" s="16"/>
     </row>
-    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="22"/>
       <c r="B176" s="22"/>
       <c r="C176" s="16"/>
@@ -2941,7 +2944,7 @@
       <c r="E176" s="16"/>
       <c r="F176" s="16"/>
     </row>
-    <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="22"/>
       <c r="B177" s="22"/>
       <c r="C177" s="16"/>
@@ -2949,7 +2952,7 @@
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
     </row>
-    <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="22"/>
       <c r="B178" s="22"/>
       <c r="C178" s="16"/>
@@ -2957,7 +2960,7 @@
       <c r="E178" s="16"/>
       <c r="F178" s="16"/>
     </row>
-    <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="22"/>
       <c r="B179" s="22"/>
       <c r="C179" s="16"/>
@@ -2965,7 +2968,7 @@
       <c r="E179" s="16"/>
       <c r="F179" s="16"/>
     </row>
-    <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="22"/>
       <c r="B180" s="22"/>
       <c r="C180" s="16"/>
@@ -2973,7 +2976,7 @@
       <c r="E180" s="16"/>
       <c r="F180" s="16"/>
     </row>
-    <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="22"/>
       <c r="B181" s="22"/>
       <c r="C181" s="16"/>
@@ -2981,7 +2984,7 @@
       <c r="E181" s="16"/>
       <c r="F181" s="16"/>
     </row>
-    <row r="182" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="22"/>
       <c r="B182" s="22"/>
       <c r="C182" s="16"/>
@@ -2989,7 +2992,7 @@
       <c r="E182" s="16"/>
       <c r="F182" s="16"/>
     </row>
-    <row r="183" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="22"/>
       <c r="B183" s="22"/>
       <c r="C183" s="16"/>
@@ -2997,7 +3000,7 @@
       <c r="E183" s="16"/>
       <c r="F183" s="16"/>
     </row>
-    <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="22"/>
       <c r="B184" s="22"/>
       <c r="C184" s="16"/>
@@ -3005,7 +3008,7 @@
       <c r="E184" s="16"/>
       <c r="F184" s="16"/>
     </row>
-    <row r="185" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="22"/>
       <c r="B185" s="22"/>
       <c r="C185" s="16"/>
@@ -3013,7 +3016,7 @@
       <c r="E185" s="16"/>
       <c r="F185" s="16"/>
     </row>
-    <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="22"/>
       <c r="B186" s="22"/>
       <c r="C186" s="16"/>
@@ -3021,7 +3024,7 @@
       <c r="E186" s="16"/>
       <c r="F186" s="16"/>
     </row>
-    <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="22"/>
       <c r="B187" s="22"/>
       <c r="C187" s="16"/>
@@ -3029,7 +3032,7 @@
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
     </row>
-    <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="22"/>
       <c r="B188" s="22"/>
       <c r="C188" s="16"/>
@@ -3037,7 +3040,7 @@
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
     </row>
-    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="22"/>
       <c r="B189" s="22"/>
       <c r="C189" s="16"/>
@@ -3045,7 +3048,7 @@
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
     </row>
-    <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="22"/>
       <c r="B190" s="22"/>
       <c r="C190" s="16"/>
@@ -3053,7 +3056,7 @@
       <c r="E190" s="16"/>
       <c r="F190" s="16"/>
     </row>
-    <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="22"/>
       <c r="B191" s="22"/>
       <c r="C191" s="16"/>
@@ -3061,7 +3064,7 @@
       <c r="E191" s="16"/>
       <c r="F191" s="16"/>
     </row>
-    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="22"/>
       <c r="B192" s="22"/>
       <c r="C192" s="16"/>
@@ -3069,13 +3072,21 @@
       <c r="E192" s="16"/>
       <c r="F192" s="16"/>
     </row>
-    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="22"/>
       <c r="B193" s="22"/>
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
       <c r="E193" s="16"/>
       <c r="F193" s="16"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="22"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -3098,784 +3109,784 @@
   </sheetPr>
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="D4" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="6" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="D9" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="D10" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="D14" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="31" t="s">
+      <c r="D18" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="31" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="34" t="s">
+      <c r="D27" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="D30" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="37" t="s">
         <v>140</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>141</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="38"/>
     </row>
-    <row r="32" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C34" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="15" t="s">
+      <c r="D35" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="39" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="29"/>
+    </row>
+    <row r="37" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C38" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="29"/>
+    </row>
+    <row r="39" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="15" t="s">
+      <c r="D39" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="24"/>
     </row>
-    <row r="41" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="24"/>
     </row>
-    <row r="42" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="24"/>
     </row>
-    <row r="43" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="24"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="28" t="s">
+      <c r="B57" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="31" t="s">
+      <c r="D57" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="D58" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3895,21 +3906,21 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="66.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="66.44140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="24" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="39.7109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="39.6640625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -3917,7 +3928,7 @@
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
     </row>
-    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3925,18 +3936,18 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
     </row>
-    <row r="4" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -3947,20 +3958,20 @@
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
     </row>
-    <row r="5" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -3971,14 +3982,14 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="202.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
@@ -3989,37 +4000,37 @@
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="49"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="49"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E15" s="49"/>
     </row>
-    <row r="26" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
     </row>
-    <row r="27" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
@@ -4049,13 +4060,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4069,7 +4080,7 @@
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -4083,7 +4094,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -4097,7 +4108,7 @@
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -4111,7 +4122,7 @@
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
     </row>
-    <row r="6" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -4125,7 +4136,7 @@
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -4139,7 +4150,7 @@
       <c r="I7" s="52"/>
       <c r="J7" s="52"/>
     </row>
-    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -4153,45 +4164,45 @@
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="65.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="63.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -4199,7 +4210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>

--- a/Книга учёта КД.xlsx
+++ b/Книга учёта КД.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleks\GitHub\QUANTUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEHA\Documents\GitHub\QUANTUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D56613-2E54-4245-A9F3-153B1A4ADD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA33DE01-32C1-4265-8FDE-C637D2EBE30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инв. книга" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="156">
   <si>
     <r>
       <t>Qantum-2U Grandmaster</t>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>06</t>
+  </si>
+  <si>
+    <t>Комплект антенный ГНСС</t>
   </si>
 </sst>
 </file>
@@ -1364,21 +1367,21 @@
   </sheetPr>
   <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19" style="23" customWidth="1"/>
-    <col min="3" max="3" width="68.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="3"/>
+    <col min="3" max="3" width="68.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>47</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>39</v>
       </c>
@@ -1408,7 +1411,7 @@
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="15"/>
@@ -1416,7 +1419,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>463269</v>
       </c>
@@ -1430,7 +1433,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>463269</v>
       </c>
@@ -1444,7 +1447,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>42</v>
       </c>
@@ -1452,13 +1455,13 @@
         <v>129</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>464349</v>
       </c>
@@ -1466,13 +1469,13 @@
         <v>130</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>464349</v>
       </c>
@@ -1480,13 +1483,13 @@
         <v>132</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>464349</v>
       </c>
@@ -1494,13 +1497,13 @@
         <v>131</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>48</v>
       </c>
@@ -1514,7 +1517,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>48</v>
       </c>
@@ -1528,7 +1531,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>50</v>
       </c>
@@ -1542,7 +1545,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>50</v>
       </c>
@@ -1556,7 +1559,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>467883</v>
       </c>
@@ -1570,7 +1573,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>467883</v>
       </c>
@@ -1584,7 +1587,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>467883</v>
       </c>
@@ -1598,7 +1601,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>467883</v>
       </c>
@@ -1612,7 +1615,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>467883</v>
       </c>
@@ -1626,7 +1629,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>467883</v>
       </c>
@@ -1640,7 +1643,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>41</v>
       </c>
@@ -1654,7 +1657,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>41</v>
       </c>
@@ -1668,7 +1671,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>41</v>
       </c>
@@ -1682,7 +1685,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>41</v>
       </c>
@@ -1696,7 +1699,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>52</v>
       </c>
@@ -1710,7 +1713,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>43</v>
       </c>
@@ -1724,7 +1727,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>45</v>
       </c>
@@ -1738,7 +1741,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>45</v>
       </c>
@@ -1752,7 +1755,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="15"/>
@@ -1760,7 +1763,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="15"/>
@@ -1768,7 +1771,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="15"/>
@@ -1776,7 +1779,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="15"/>
@@ -1784,7 +1787,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="15"/>
@@ -1792,7 +1795,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="15"/>
@@ -1800,7 +1803,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="15"/>
@@ -1808,7 +1811,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="15"/>
@@ -1816,7 +1819,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="15"/>
@@ -1824,7 +1827,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="16"/>
@@ -1832,7 +1835,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="16"/>
@@ -1840,7 +1843,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="16"/>
@@ -1848,7 +1851,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="16"/>
@@ -1856,7 +1859,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="16"/>
@@ -1864,7 +1867,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="16"/>
@@ -1872,7 +1875,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="16"/>
@@ -1880,7 +1883,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="16"/>
@@ -1888,7 +1891,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="16"/>
@@ -1896,7 +1899,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="16"/>
@@ -1904,7 +1907,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="16"/>
@@ -1912,7 +1915,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="16"/>
@@ -1920,7 +1923,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="16"/>
@@ -1928,7 +1931,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="16"/>
@@ -1936,7 +1939,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="16"/>
@@ -1944,7 +1947,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="16"/>
@@ -1952,7 +1955,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="16"/>
@@ -1960,7 +1963,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="16"/>
@@ -1968,7 +1971,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="16"/>
@@ -1976,7 +1979,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
     </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="16"/>
@@ -1984,7 +1987,7 @@
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
     </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="16"/>
@@ -1992,7 +1995,7 @@
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
     </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="16"/>
@@ -2000,7 +2003,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="16"/>
@@ -2008,7 +2011,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="16"/>
@@ -2016,7 +2019,7 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="16"/>
@@ -2024,7 +2027,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="16"/>
@@ -2032,7 +2035,7 @@
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
     </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="16"/>
@@ -2040,7 +2043,7 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
     </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="16"/>
@@ -2048,7 +2051,7 @@
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="16"/>
@@ -2056,7 +2059,7 @@
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="16"/>
@@ -2064,7 +2067,7 @@
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
     </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="16"/>
@@ -2072,7 +2075,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
-    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="16"/>
@@ -2080,7 +2083,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="16"/>
@@ -2088,7 +2091,7 @@
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
-    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="16"/>
@@ -2096,7 +2099,7 @@
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="16"/>
@@ -2104,7 +2107,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
-    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="16"/>
@@ -2112,7 +2115,7 @@
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
     </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="16"/>
@@ -2120,7 +2123,7 @@
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
     </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="16"/>
@@ -2128,7 +2131,7 @@
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
     </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="16"/>
@@ -2136,7 +2139,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
     </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="16"/>
@@ -2144,7 +2147,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="16"/>
@@ -2152,7 +2155,7 @@
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
     </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="16"/>
@@ -2160,7 +2163,7 @@
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
     </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="16"/>
@@ -2168,7 +2171,7 @@
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
     </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="16"/>
@@ -2176,7 +2179,7 @@
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
     </row>
-    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="16"/>
@@ -2184,7 +2187,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="16"/>
@@ -2192,7 +2195,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="16"/>
@@ -2200,7 +2203,7 @@
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="16"/>
@@ -2208,7 +2211,7 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="16"/>
@@ -2216,7 +2219,7 @@
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="16"/>
@@ -2224,7 +2227,7 @@
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="16"/>
@@ -2232,7 +2235,7 @@
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="16"/>
@@ -2240,7 +2243,7 @@
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="16"/>
@@ -2248,7 +2251,7 @@
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="16"/>
@@ -2256,7 +2259,7 @@
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="16"/>
@@ -2264,7 +2267,7 @@
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="16"/>
@@ -2272,7 +2275,7 @@
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
     </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="16"/>
@@ -2280,7 +2283,7 @@
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="16"/>
@@ -2288,7 +2291,7 @@
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="16"/>
@@ -2296,7 +2299,7 @@
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="16"/>
@@ -2304,7 +2307,7 @@
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="16"/>
@@ -2312,7 +2315,7 @@
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="16"/>
@@ -2320,7 +2323,7 @@
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="16"/>
@@ -2328,7 +2331,7 @@
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
     </row>
-    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="16"/>
@@ -2336,7 +2339,7 @@
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="16"/>
@@ -2344,7 +2347,7 @@
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="22"/>
       <c r="B102" s="22"/>
       <c r="C102" s="16"/>
@@ -2352,7 +2355,7 @@
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="16"/>
@@ -2360,7 +2363,7 @@
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="16"/>
@@ -2368,7 +2371,7 @@
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="16"/>
@@ -2376,7 +2379,7 @@
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
     </row>
-    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="16"/>
@@ -2384,7 +2387,7 @@
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
     </row>
-    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="16"/>
@@ -2392,7 +2395,7 @@
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
     </row>
-    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="16"/>
@@ -2400,7 +2403,7 @@
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
     </row>
-    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="16"/>
@@ -2408,7 +2411,7 @@
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
     </row>
-    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="16"/>
@@ -2416,7 +2419,7 @@
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
     </row>
-    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="16"/>
@@ -2424,7 +2427,7 @@
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
     </row>
-    <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="16"/>
@@ -2432,7 +2435,7 @@
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="16"/>
@@ -2440,7 +2443,7 @@
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
     </row>
-    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="16"/>
@@ -2448,7 +2451,7 @@
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
     </row>
-    <row r="115" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="16"/>
@@ -2456,7 +2459,7 @@
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
     </row>
-    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="16"/>
@@ -2464,7 +2467,7 @@
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
     </row>
-    <row r="117" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="16"/>
@@ -2472,7 +2475,7 @@
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
     </row>
-    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="16"/>
@@ -2480,7 +2483,7 @@
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
     </row>
-    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="16"/>
@@ -2488,7 +2491,7 @@
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
     </row>
-    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="16"/>
@@ -2496,7 +2499,7 @@
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
     </row>
-    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="22"/>
       <c r="B121" s="22"/>
       <c r="C121" s="16"/>
@@ -2504,7 +2507,7 @@
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
     </row>
-    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="22"/>
       <c r="B122" s="22"/>
       <c r="C122" s="16"/>
@@ -2512,7 +2515,7 @@
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
     </row>
-    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="16"/>
@@ -2520,7 +2523,7 @@
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
     </row>
-    <row r="124" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="22"/>
       <c r="B124" s="22"/>
       <c r="C124" s="16"/>
@@ -2528,7 +2531,7 @@
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
     </row>
-    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="22"/>
       <c r="B125" s="22"/>
       <c r="C125" s="16"/>
@@ -2536,7 +2539,7 @@
       <c r="E125" s="16"/>
       <c r="F125" s="16"/>
     </row>
-    <row r="126" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="22"/>
       <c r="B126" s="22"/>
       <c r="C126" s="16"/>
@@ -2544,7 +2547,7 @@
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
     </row>
-    <row r="127" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="C127" s="16"/>
@@ -2552,7 +2555,7 @@
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
     </row>
-    <row r="128" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="22"/>
       <c r="B128" s="22"/>
       <c r="C128" s="16"/>
@@ -2560,7 +2563,7 @@
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
     </row>
-    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="22"/>
       <c r="B129" s="22"/>
       <c r="C129" s="16"/>
@@ -2568,7 +2571,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
     </row>
-    <row r="130" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
       <c r="C130" s="16"/>
@@ -2576,7 +2579,7 @@
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
     </row>
-    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="22"/>
       <c r="B131" s="22"/>
       <c r="C131" s="16"/>
@@ -2584,7 +2587,7 @@
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="22"/>
       <c r="B132" s="22"/>
       <c r="C132" s="16"/>
@@ -2592,7 +2595,7 @@
       <c r="E132" s="16"/>
       <c r="F132" s="16"/>
     </row>
-    <row r="133" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="16"/>
@@ -2600,7 +2603,7 @@
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
     </row>
-    <row r="134" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="16"/>
@@ -2608,7 +2611,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="16"/>
     </row>
-    <row r="135" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="16"/>
@@ -2616,7 +2619,7 @@
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
     </row>
-    <row r="136" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="16"/>
@@ -2624,7 +2627,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
     </row>
-    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="16"/>
@@ -2632,7 +2635,7 @@
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
     </row>
-    <row r="138" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="16"/>
@@ -2640,7 +2643,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
     </row>
-    <row r="139" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="16"/>
@@ -2648,7 +2651,7 @@
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
     </row>
-    <row r="140" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="16"/>
@@ -2656,7 +2659,7 @@
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
     </row>
-    <row r="141" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="16"/>
@@ -2664,7 +2667,7 @@
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
     </row>
-    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="16"/>
@@ -2672,7 +2675,7 @@
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
     </row>
-    <row r="143" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="16"/>
@@ -2680,7 +2683,7 @@
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
     </row>
-    <row r="144" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="16"/>
@@ -2688,7 +2691,7 @@
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
     </row>
-    <row r="145" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
       <c r="C145" s="16"/>
@@ -2696,7 +2699,7 @@
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
     </row>
-    <row r="146" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="22"/>
       <c r="B146" s="22"/>
       <c r="C146" s="16"/>
@@ -2704,7 +2707,7 @@
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
     </row>
-    <row r="147" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="22"/>
       <c r="B147" s="22"/>
       <c r="C147" s="16"/>
@@ -2712,7 +2715,7 @@
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="16"/>
@@ -2720,7 +2723,7 @@
       <c r="E148" s="16"/>
       <c r="F148" s="16"/>
     </row>
-    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
       <c r="C149" s="16"/>
@@ -2728,7 +2731,7 @@
       <c r="E149" s="16"/>
       <c r="F149" s="16"/>
     </row>
-    <row r="150" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="22"/>
       <c r="B150" s="22"/>
       <c r="C150" s="16"/>
@@ -2736,7 +2739,7 @@
       <c r="E150" s="16"/>
       <c r="F150" s="16"/>
     </row>
-    <row r="151" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="22"/>
       <c r="B151" s="22"/>
       <c r="C151" s="16"/>
@@ -2744,7 +2747,7 @@
       <c r="E151" s="16"/>
       <c r="F151" s="16"/>
     </row>
-    <row r="152" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="22"/>
       <c r="B152" s="22"/>
       <c r="C152" s="16"/>
@@ -2752,7 +2755,7 @@
       <c r="E152" s="16"/>
       <c r="F152" s="16"/>
     </row>
-    <row r="153" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="22"/>
       <c r="B153" s="22"/>
       <c r="C153" s="16"/>
@@ -2760,7 +2763,7 @@
       <c r="E153" s="16"/>
       <c r="F153" s="16"/>
     </row>
-    <row r="154" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="22"/>
       <c r="B154" s="22"/>
       <c r="C154" s="16"/>
@@ -2768,7 +2771,7 @@
       <c r="E154" s="16"/>
       <c r="F154" s="16"/>
     </row>
-    <row r="155" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="22"/>
       <c r="B155" s="22"/>
       <c r="C155" s="16"/>
@@ -2776,7 +2779,7 @@
       <c r="E155" s="16"/>
       <c r="F155" s="16"/>
     </row>
-    <row r="156" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="22"/>
       <c r="B156" s="22"/>
       <c r="C156" s="16"/>
@@ -2784,7 +2787,7 @@
       <c r="E156" s="16"/>
       <c r="F156" s="16"/>
     </row>
-    <row r="157" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
       <c r="C157" s="16"/>
@@ -2792,7 +2795,7 @@
       <c r="E157" s="16"/>
       <c r="F157" s="16"/>
     </row>
-    <row r="158" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="16"/>
@@ -2800,7 +2803,7 @@
       <c r="E158" s="16"/>
       <c r="F158" s="16"/>
     </row>
-    <row r="159" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="22"/>
       <c r="B159" s="22"/>
       <c r="C159" s="16"/>
@@ -2808,7 +2811,7 @@
       <c r="E159" s="16"/>
       <c r="F159" s="16"/>
     </row>
-    <row r="160" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="22"/>
       <c r="B160" s="22"/>
       <c r="C160" s="16"/>
@@ -2816,7 +2819,7 @@
       <c r="E160" s="16"/>
       <c r="F160" s="16"/>
     </row>
-    <row r="161" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="22"/>
       <c r="B161" s="22"/>
       <c r="C161" s="16"/>
@@ -2824,7 +2827,7 @@
       <c r="E161" s="16"/>
       <c r="F161" s="16"/>
     </row>
-    <row r="162" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="22"/>
       <c r="B162" s="22"/>
       <c r="C162" s="16"/>
@@ -2832,7 +2835,7 @@
       <c r="E162" s="16"/>
       <c r="F162" s="16"/>
     </row>
-    <row r="163" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="22"/>
       <c r="B163" s="22"/>
       <c r="C163" s="16"/>
@@ -2840,7 +2843,7 @@
       <c r="E163" s="16"/>
       <c r="F163" s="16"/>
     </row>
-    <row r="164" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
       <c r="C164" s="16"/>
@@ -2848,7 +2851,7 @@
       <c r="E164" s="16"/>
       <c r="F164" s="16"/>
     </row>
-    <row r="165" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="22"/>
       <c r="B165" s="22"/>
       <c r="C165" s="16"/>
@@ -2856,7 +2859,7 @@
       <c r="E165" s="16"/>
       <c r="F165" s="16"/>
     </row>
-    <row r="166" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="22"/>
       <c r="B166" s="22"/>
       <c r="C166" s="16"/>
@@ -2864,7 +2867,7 @@
       <c r="E166" s="16"/>
       <c r="F166" s="16"/>
     </row>
-    <row r="167" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="22"/>
       <c r="B167" s="22"/>
       <c r="C167" s="16"/>
@@ -2872,7 +2875,7 @@
       <c r="E167" s="16"/>
       <c r="F167" s="16"/>
     </row>
-    <row r="168" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="22"/>
       <c r="B168" s="22"/>
       <c r="C168" s="16"/>
@@ -2880,7 +2883,7 @@
       <c r="E168" s="16"/>
       <c r="F168" s="16"/>
     </row>
-    <row r="169" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="22"/>
       <c r="B169" s="22"/>
       <c r="C169" s="16"/>
@@ -2888,7 +2891,7 @@
       <c r="E169" s="16"/>
       <c r="F169" s="16"/>
     </row>
-    <row r="170" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="22"/>
       <c r="B170" s="22"/>
       <c r="C170" s="16"/>
@@ -2896,7 +2899,7 @@
       <c r="E170" s="16"/>
       <c r="F170" s="16"/>
     </row>
-    <row r="171" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="22"/>
       <c r="B171" s="22"/>
       <c r="C171" s="16"/>
@@ -2904,7 +2907,7 @@
       <c r="E171" s="16"/>
       <c r="F171" s="16"/>
     </row>
-    <row r="172" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="22"/>
       <c r="B172" s="22"/>
       <c r="C172" s="16"/>
@@ -2912,7 +2915,7 @@
       <c r="E172" s="16"/>
       <c r="F172" s="16"/>
     </row>
-    <row r="173" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="22"/>
       <c r="B173" s="22"/>
       <c r="C173" s="16"/>
@@ -2920,7 +2923,7 @@
       <c r="E173" s="16"/>
       <c r="F173" s="16"/>
     </row>
-    <row r="174" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="22"/>
       <c r="B174" s="22"/>
       <c r="C174" s="16"/>
@@ -2928,7 +2931,7 @@
       <c r="E174" s="16"/>
       <c r="F174" s="16"/>
     </row>
-    <row r="175" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="22"/>
       <c r="B175" s="22"/>
       <c r="C175" s="16"/>
@@ -2936,7 +2939,7 @@
       <c r="E175" s="16"/>
       <c r="F175" s="16"/>
     </row>
-    <row r="176" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="22"/>
       <c r="B176" s="22"/>
       <c r="C176" s="16"/>
@@ -2944,7 +2947,7 @@
       <c r="E176" s="16"/>
       <c r="F176" s="16"/>
     </row>
-    <row r="177" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="22"/>
       <c r="B177" s="22"/>
       <c r="C177" s="16"/>
@@ -2952,7 +2955,7 @@
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
     </row>
-    <row r="178" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="22"/>
       <c r="B178" s="22"/>
       <c r="C178" s="16"/>
@@ -2960,7 +2963,7 @@
       <c r="E178" s="16"/>
       <c r="F178" s="16"/>
     </row>
-    <row r="179" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="22"/>
       <c r="B179" s="22"/>
       <c r="C179" s="16"/>
@@ -2968,7 +2971,7 @@
       <c r="E179" s="16"/>
       <c r="F179" s="16"/>
     </row>
-    <row r="180" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="22"/>
       <c r="B180" s="22"/>
       <c r="C180" s="16"/>
@@ -2976,7 +2979,7 @@
       <c r="E180" s="16"/>
       <c r="F180" s="16"/>
     </row>
-    <row r="181" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="22"/>
       <c r="B181" s="22"/>
       <c r="C181" s="16"/>
@@ -2984,7 +2987,7 @@
       <c r="E181" s="16"/>
       <c r="F181" s="16"/>
     </row>
-    <row r="182" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="22"/>
       <c r="B182" s="22"/>
       <c r="C182" s="16"/>
@@ -2992,7 +2995,7 @@
       <c r="E182" s="16"/>
       <c r="F182" s="16"/>
     </row>
-    <row r="183" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="22"/>
       <c r="B183" s="22"/>
       <c r="C183" s="16"/>
@@ -3000,7 +3003,7 @@
       <c r="E183" s="16"/>
       <c r="F183" s="16"/>
     </row>
-    <row r="184" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="22"/>
       <c r="B184" s="22"/>
       <c r="C184" s="16"/>
@@ -3008,7 +3011,7 @@
       <c r="E184" s="16"/>
       <c r="F184" s="16"/>
     </row>
-    <row r="185" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="22"/>
       <c r="B185" s="22"/>
       <c r="C185" s="16"/>
@@ -3016,7 +3019,7 @@
       <c r="E185" s="16"/>
       <c r="F185" s="16"/>
     </row>
-    <row r="186" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="22"/>
       <c r="B186" s="22"/>
       <c r="C186" s="16"/>
@@ -3024,7 +3027,7 @@
       <c r="E186" s="16"/>
       <c r="F186" s="16"/>
     </row>
-    <row r="187" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="22"/>
       <c r="B187" s="22"/>
       <c r="C187" s="16"/>
@@ -3032,7 +3035,7 @@
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
     </row>
-    <row r="188" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="22"/>
       <c r="B188" s="22"/>
       <c r="C188" s="16"/>
@@ -3040,7 +3043,7 @@
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
     </row>
-    <row r="189" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="22"/>
       <c r="B189" s="22"/>
       <c r="C189" s="16"/>
@@ -3048,7 +3051,7 @@
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
     </row>
-    <row r="190" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="22"/>
       <c r="B190" s="22"/>
       <c r="C190" s="16"/>
@@ -3056,7 +3059,7 @@
       <c r="E190" s="16"/>
       <c r="F190" s="16"/>
     </row>
-    <row r="191" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="22"/>
       <c r="B191" s="22"/>
       <c r="C191" s="16"/>
@@ -3064,7 +3067,7 @@
       <c r="E191" s="16"/>
       <c r="F191" s="16"/>
     </row>
-    <row r="192" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="22"/>
       <c r="B192" s="22"/>
       <c r="C192" s="16"/>
@@ -3072,7 +3075,7 @@
       <c r="E192" s="16"/>
       <c r="F192" s="16"/>
     </row>
-    <row r="193" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="22"/>
       <c r="B193" s="22"/>
       <c r="C193" s="16"/>
@@ -3080,7 +3083,7 @@
       <c r="E193" s="16"/>
       <c r="F193" s="16"/>
     </row>
-    <row r="194" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="22"/>
       <c r="B194" s="22"/>
       <c r="C194" s="16"/>
@@ -3113,15 +3116,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>63</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>60</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>75</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>76</v>
       </c>
@@ -3177,7 +3180,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>54</v>
       </c>
@@ -3191,7 +3194,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>55</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>61</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>77</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>78</v>
       </c>
@@ -3247,7 +3250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>54</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>55</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>111</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>112</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>113</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>114</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>115</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>116</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>117</v>
       </c>
@@ -3387,7 +3390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>118</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>119</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>120</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>121</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>122</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>123</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>124</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>125</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>126</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>127</v>
       </c>
@@ -3527,7 +3530,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>128</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>139</v>
       </c>
@@ -3551,7 +3554,7 @@
       <c r="C31" s="37"/>
       <c r="D31" s="38"/>
     </row>
-    <row r="32" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>138</v>
       </c>
@@ -3563,7 +3566,7 @@
       </c>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>141</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>142</v>
       </c>
@@ -3589,7 +3592,7 @@
       </c>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>143</v>
       </c>
@@ -3603,7 +3606,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>144</v>
       </c>
@@ -3615,7 +3618,7 @@
       </c>
       <c r="D36" s="29"/>
     </row>
-    <row r="37" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>145</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>146</v>
       </c>
@@ -3641,7 +3644,7 @@
       </c>
       <c r="D38" s="29"/>
     </row>
-    <row r="39" spans="1:4" ht="19.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="19.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>147</v>
       </c>
@@ -3655,31 +3658,31 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="24"/>
     </row>
-    <row r="41" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="24"/>
     </row>
-    <row r="42" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="24"/>
     </row>
-    <row r="43" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="24"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>72</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>79</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>85</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>87</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>88</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>86</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>89</v>
       </c>
@@ -3777,7 +3780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>90</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>81</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>82</v>
       </c>
@@ -3819,7 +3822,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>80</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>83</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>84</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>73</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>74</v>
       </c>
@@ -3906,21 +3909,21 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="66.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="66.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="24" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="39.6640625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="7" max="7" width="12.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -3928,7 +3931,7 @@
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
     </row>
-    <row r="2" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3936,7 +3939,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -3947,7 +3950,7 @@
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
     </row>
-    <row r="4" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -3958,7 +3961,7 @@
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
     </row>
-    <row r="5" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -3971,7 +3974,7 @@
       <c r="H5" s="51"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -3982,12 +3985,12 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="202.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>40</v>
       </c>
@@ -4000,21 +4003,21 @@
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="49"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="49"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="49"/>
     </row>
-    <row r="26" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>35</v>
       </c>
@@ -4022,13 +4025,13 @@
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
     </row>
-    <row r="27" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>32</v>
       </c>
@@ -4060,13 +4063,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4080,7 +4083,7 @@
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -4094,7 +4097,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -4108,7 +4111,7 @@
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -4122,7 +4125,7 @@
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
     </row>
-    <row r="6" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -4136,7 +4139,7 @@
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -4150,7 +4153,7 @@
       <c r="I7" s="52"/>
       <c r="J7" s="52"/>
     </row>
-    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -4164,7 +4167,7 @@
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -4172,37 +4175,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="63.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="65.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
